--- a/Examples/ngep/ngep_model.xlsx
+++ b/Examples/ngep/ngep_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\ngep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\ngep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF679F82-FAC9-4839-8157-6319518E00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F55F9F7-C5CA-4AC9-90BD-D2EB9A493FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="255" windowWidth="17295" windowHeight="12525" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="129">
   <si>
     <t>key</t>
   </si>
@@ -122,9 +122,6 @@
     <t>DISSIPATIVE</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>G13</t>
   </si>
   <si>
-    <t>G14</t>
-  </si>
-  <si>
     <t>HT16</t>
   </si>
   <si>
@@ -474,6 +468,15 @@
   </si>
   <si>
     <t>(J/J)</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>Expander</t>
+  </si>
+  <si>
+    <t>QG</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -529,15 +532,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,16 +943,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,10 +963,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,10 +977,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,30 +988,30 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1005,8 +1025,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1045,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1033,7 +1053,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1041,7 +1061,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1049,7 +1069,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1057,7 +1077,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1065,7 +1085,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1073,7 +1093,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1081,7 +1101,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1089,7 +1109,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1097,7 +1117,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1105,7 +1125,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1113,7 +1133,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1121,7 +1141,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1129,15 +1149,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1145,7 +1165,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1153,7 +1173,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1161,7 +1181,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1169,7 +1189,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1177,7 +1197,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1185,7 +1205,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1193,7 +1213,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1201,7 +1221,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1209,7 +1229,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1217,7 +1237,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1225,7 +1245,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1233,7 +1253,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1241,7 +1261,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1249,7 +1269,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1257,7 +1277,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1265,7 +1285,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1273,7 +1293,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1281,7 +1301,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1289,7 +1309,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1297,7 +1317,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1326,8 +1346,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,16 +1380,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1377,16 +1397,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1394,16 +1414,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1411,16 +1431,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1428,16 +1448,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1445,16 +1465,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1462,16 +1482,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1479,16 +1499,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1496,16 +1516,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1513,16 +1533,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1530,16 +1550,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1547,16 +1567,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1564,16 +1584,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1581,16 +1601,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
         <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1598,16 +1618,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1615,16 +1635,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -1650,10 +1670,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,296 +1681,513 @@
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
+        <v>366255</v>
+      </c>
+      <c r="C2" s="4">
+        <v>366255</v>
+      </c>
+      <c r="D2" s="4">
+        <v>366255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="4">
+        <v>366289</v>
+      </c>
+      <c r="C3" s="4">
+        <v>366297</v>
+      </c>
+      <c r="D3" s="4">
         <v>366255</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
-        <v>366289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="4">
+        <v>366379</v>
+      </c>
+      <c r="C4" s="4">
+        <v>366379</v>
+      </c>
+      <c r="D4" s="4">
+        <v>366379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
-        <v>366379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="4">
+        <v>364957</v>
+      </c>
+      <c r="C5" s="4">
+        <v>364957</v>
+      </c>
+      <c r="D5" s="4">
+        <v>364957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="4">
+        <v>364986</v>
+      </c>
+      <c r="C6" s="4">
+        <v>364994</v>
+      </c>
+      <c r="D6" s="4">
         <v>364957</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
-        <v>364986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="4">
+        <v>365039</v>
+      </c>
+      <c r="C7" s="4">
+        <v>365039</v>
+      </c>
+      <c r="D7" s="4">
+        <v>365039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4">
+        <v>363808</v>
+      </c>
+      <c r="C8" s="4">
+        <v>363808</v>
+      </c>
+      <c r="D8" s="4">
+        <v>363808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
-        <v>365039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8">
-        <v>363808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="4">
+        <v>357729</v>
+      </c>
+      <c r="C9" s="4">
+        <v>358579</v>
+      </c>
+      <c r="D9" s="4">
+        <v>361103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9">
-        <v>357729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="4">
+        <v>6079</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5228</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10">
-        <v>6079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="4">
+        <v>851.4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>732.3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12">
-        <v>851.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="4">
+        <v>180.9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>732.3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B13">
-        <v>180.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="4">
+        <v>146.6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4">
+        <v>146.6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14">
-        <v>146.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="4">
+        <v>231.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>203.6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>508.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15">
-        <v>146.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" s="4">
+        <v>146.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>121.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>386.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16">
-        <v>231.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17">
-        <v>146.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="4">
+        <v>116.1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>102.1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B19">
-        <v>116.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" s="4">
+        <v>55.4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B20">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>53.1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B23" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" s="4">
+        <v>640.1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" s="4">
+        <v>193.9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>640.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" s="4">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B26">
-        <v>193.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27">
-        <v>157.30000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B29" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B28">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30" s="4">
+        <v>49.1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="4">
+        <v>906</v>
+      </c>
+      <c r="C31" s="4">
+        <v>906</v>
+      </c>
+      <c r="D31" s="4">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B32" s="4">
+        <v>883.8</v>
+      </c>
+      <c r="C32" s="4">
+        <v>883.8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>838.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" s="4">
+        <v>2349</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32">
-        <v>883.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" s="4">
+        <v>343.2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B33">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B34">
-        <v>343.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36">
-        <v>4482</v>
+      <c r="B36" s="4">
+        <v>4450</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3772</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1973,18 +2210,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1993,12 +2230,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2007,12 +2244,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2021,12 +2258,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2035,12 +2272,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2049,12 +2286,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -2063,7 +2300,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2314,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,15 +2331,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2136,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60EB8C5-1C2D-45A7-AF02-11D3821F8264}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,12 +2384,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/Examples/ngep/ngep_model.xlsx
+++ b/Examples/ngep/ngep_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\ngep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ngep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F55F9F7-C5CA-4AC9-90BD-D2EB9A493FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575F72A-6936-451E-A20C-C8E5CC995DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="255" windowWidth="17295" windowHeight="12525" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8085" yWindow="3120" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -1346,7 +1346,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1672,8 +1672,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2011,7 @@
         <v>3.38</v>
       </c>
       <c r="C24" s="4">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>

--- a/Examples/ngep/ngep_model.xlsx
+++ b/Examples/ngep/ngep_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ngep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575F72A-6936-451E-A20C-C8E5CC995DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3397FBCA-EDB1-4DBA-ABDA-41BA44EC030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3120" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$15</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$7</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$15</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -1346,19 +1346,20 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1375,7 +1376,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,7 +1384,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>95</v>
@@ -1392,7 +1393,7 @@
         <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,7 +1401,7 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>97</v>
@@ -1409,7 +1410,7 @@
         <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,7 +1418,7 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
@@ -1426,7 +1427,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,7 +1435,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -1443,7 +1444,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,7 +1452,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -1460,7 +1461,7 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +1469,7 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -1477,7 +1478,7 @@
         <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1485,7 +1486,7 @@
         <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>107</v>
@@ -1494,7 +1495,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,7 +1503,7 @@
         <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>123</v>
@@ -1511,7 +1512,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,7 +1520,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
@@ -1528,7 +1529,7 @@
         <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1536,7 +1537,7 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -1545,7 +1546,7 @@
         <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,7 +1554,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>113</v>
@@ -1562,7 +1563,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1571,7 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>115</v>
@@ -1579,7 +1580,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,7 +1588,7 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -1596,7 +1597,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,7 +1605,7 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>119</v>
@@ -1613,7 +1614,7 @@
         <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,7 +1622,7 @@
         <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>117</v>
@@ -1630,7 +1631,7 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,7 +1639,7 @@
         <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -1647,7 +1648,7 @@
         <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1660,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
+          <xm:sqref>B2:B17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1672,7 +1673,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
